--- a/natmiOut/OldD2/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.17335731216798</v>
+        <v>5.1690535</v>
       </c>
       <c r="H2">
-        <v>3.17335731216798</v>
+        <v>10.338107</v>
       </c>
       <c r="I2">
-        <v>0.04030367779898088</v>
+        <v>0.05780468704045525</v>
       </c>
       <c r="J2">
-        <v>0.04030367779898088</v>
+        <v>0.04417925588997337</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>5.805009546750411</v>
+        <v>10.436556792961</v>
       </c>
       <c r="R2">
-        <v>5.805009546750411</v>
+        <v>41.74622717184399</v>
       </c>
       <c r="S2">
-        <v>0.0001497880779445921</v>
+        <v>0.0002297940549765963</v>
       </c>
       <c r="T2">
-        <v>0.0001497880779445921</v>
+        <v>0.0001195957876339881</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.17335731216798</v>
+        <v>5.1690535</v>
       </c>
       <c r="H3">
-        <v>3.17335731216798</v>
+        <v>10.338107</v>
       </c>
       <c r="I3">
-        <v>0.04030367779898088</v>
+        <v>0.05780468704045525</v>
       </c>
       <c r="J3">
-        <v>0.04030367779898088</v>
+        <v>0.04417925588997337</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>417.3332048874905</v>
+        <v>722.0899810226914</v>
       </c>
       <c r="R3">
-        <v>417.3332048874905</v>
+        <v>4332.539886136149</v>
       </c>
       <c r="S3">
-        <v>0.0107685505284909</v>
+        <v>0.01589911194744723</v>
       </c>
       <c r="T3">
-        <v>0.0107685505284909</v>
+        <v>0.01241198439334881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.17335731216798</v>
+        <v>5.1690535</v>
       </c>
       <c r="H4">
-        <v>3.17335731216798</v>
+        <v>10.338107</v>
       </c>
       <c r="I4">
-        <v>0.04030367779898088</v>
+        <v>0.05780468704045525</v>
       </c>
       <c r="J4">
-        <v>0.04030367779898088</v>
+        <v>0.04417925588997337</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>584.6166978146118</v>
+        <v>963.2782085876712</v>
       </c>
       <c r="R4">
-        <v>584.6166978146118</v>
+        <v>5779.669251526027</v>
       </c>
       <c r="S4">
-        <v>0.01508500731906379</v>
+        <v>0.02120963934879818</v>
       </c>
       <c r="T4">
-        <v>0.01508500731906379</v>
+        <v>0.01655776205966699</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.17335731216798</v>
+        <v>5.1690535</v>
       </c>
       <c r="H5">
-        <v>3.17335731216798</v>
+        <v>10.338107</v>
       </c>
       <c r="I5">
-        <v>0.04030367779898088</v>
+        <v>0.05780468704045525</v>
       </c>
       <c r="J5">
-        <v>0.04030367779898088</v>
+        <v>0.04417925588997337</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>443.3950954983924</v>
+        <v>742.3029582321642</v>
       </c>
       <c r="R5">
-        <v>443.3950954983924</v>
+        <v>4453.817749392986</v>
       </c>
       <c r="S5">
-        <v>0.01144103185186693</v>
+        <v>0.0163441650514793</v>
       </c>
       <c r="T5">
-        <v>0.01144103185186693</v>
+        <v>0.01275942469062557</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.17335731216798</v>
+        <v>5.1690535</v>
       </c>
       <c r="H6">
-        <v>3.17335731216798</v>
+        <v>10.338107</v>
       </c>
       <c r="I6">
-        <v>0.04030367779898088</v>
+        <v>0.05780468704045525</v>
       </c>
       <c r="J6">
-        <v>0.04030367779898088</v>
+        <v>0.04417925588997337</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>15.73584625426605</v>
+        <v>32.32578913177034</v>
       </c>
       <c r="R6">
-        <v>15.73584625426605</v>
+        <v>193.954734790622</v>
       </c>
       <c r="S6">
-        <v>0.0004060358809534722</v>
+        <v>0.0007117552572432641</v>
       </c>
       <c r="T6">
-        <v>0.0004060358809534722</v>
+        <v>0.0005556470810437814</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.17335731216798</v>
+        <v>5.1690535</v>
       </c>
       <c r="H7">
-        <v>3.17335731216798</v>
+        <v>10.338107</v>
       </c>
       <c r="I7">
-        <v>0.04030367779898088</v>
+        <v>0.05780468704045525</v>
       </c>
       <c r="J7">
-        <v>0.04030367779898088</v>
+        <v>0.04417925588997337</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>95.07580277855442</v>
+        <v>154.8820273783607</v>
       </c>
       <c r="R7">
-        <v>95.07580277855442</v>
+        <v>619.5281095134429</v>
       </c>
       <c r="S7">
-        <v>0.002453264140661211</v>
+        <v>0.003410221380510694</v>
       </c>
       <c r="T7">
-        <v>0.002453264140661211</v>
+        <v>0.001774841877654235</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.3495240739955</v>
+        <v>36.71983700000001</v>
       </c>
       <c r="H8">
-        <v>34.3495240739955</v>
+        <v>110.159511</v>
       </c>
       <c r="I8">
-        <v>0.4362610367002279</v>
+        <v>0.4106319824241575</v>
       </c>
       <c r="J8">
-        <v>0.4362610367002279</v>
+        <v>0.4707598040127982</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>62.83544384091149</v>
+        <v>74.139040015502</v>
       </c>
       <c r="R8">
-        <v>62.83544384091149</v>
+        <v>444.834240093012</v>
       </c>
       <c r="S8">
-        <v>0.001621358291304488</v>
+        <v>0.001632407217744923</v>
       </c>
       <c r="T8">
-        <v>0.001621358291304488</v>
+        <v>0.001274373875548007</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.3495240739955</v>
+        <v>36.71983700000001</v>
       </c>
       <c r="H9">
-        <v>34.3495240739955</v>
+        <v>110.159511</v>
       </c>
       <c r="I9">
-        <v>0.4362610367002279</v>
+        <v>0.4106319824241575</v>
       </c>
       <c r="J9">
-        <v>0.4362610367002279</v>
+        <v>0.4707598040127982</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>4517.359867794719</v>
+        <v>5129.570897744883</v>
       </c>
       <c r="R9">
-        <v>4517.359867794719</v>
+        <v>46166.13807970395</v>
       </c>
       <c r="S9">
-        <v>0.1165625390503945</v>
+        <v>0.1129438492279128</v>
       </c>
       <c r="T9">
-        <v>0.1165625390503945</v>
+        <v>0.1322580750335566</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.3495240739955</v>
+        <v>36.71983700000001</v>
       </c>
       <c r="H10">
-        <v>34.3495240739955</v>
+        <v>110.159511</v>
       </c>
       <c r="I10">
-        <v>0.4362610367002279</v>
+        <v>0.4106319824241575</v>
       </c>
       <c r="J10">
-        <v>0.4362610367002279</v>
+        <v>0.4707598040127982</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>6328.094620370241</v>
+        <v>6842.919850798854</v>
       </c>
       <c r="R10">
-        <v>6328.094620370241</v>
+        <v>61586.27865718968</v>
       </c>
       <c r="S10">
-        <v>0.1632853697488545</v>
+        <v>0.1506686861949978</v>
       </c>
       <c r="T10">
-        <v>0.1632853697488545</v>
+        <v>0.1764341355479556</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.3495240739955</v>
+        <v>36.71983700000001</v>
       </c>
       <c r="H11">
-        <v>34.3495240739955</v>
+        <v>110.159511</v>
       </c>
       <c r="I11">
-        <v>0.4362610367002279</v>
+        <v>0.4106319824241575</v>
       </c>
       <c r="J11">
-        <v>0.4362610367002279</v>
+        <v>0.4707598040127982</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>4799.462842937287</v>
+        <v>5273.159511872509</v>
       </c>
       <c r="R11">
-        <v>4799.462842937287</v>
+        <v>47458.43560685258</v>
       </c>
       <c r="S11">
-        <v>0.1238417109602341</v>
+        <v>0.1161054101280663</v>
       </c>
       <c r="T11">
-        <v>0.1238417109602341</v>
+        <v>0.1359602860137392</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.3495240739955</v>
+        <v>36.71983700000001</v>
       </c>
       <c r="H12">
-        <v>34.3495240739955</v>
+        <v>110.159511</v>
       </c>
       <c r="I12">
-        <v>0.4362610367002279</v>
+        <v>0.4106319824241575</v>
       </c>
       <c r="J12">
-        <v>0.4362610367002279</v>
+        <v>0.4707598040127982</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>170.3302769161947</v>
+        <v>229.6354076844007</v>
       </c>
       <c r="R12">
-        <v>170.3302769161947</v>
+        <v>2066.718669159607</v>
       </c>
       <c r="S12">
-        <v>0.004395073701356634</v>
+        <v>0.005056155257411388</v>
       </c>
       <c r="T12">
-        <v>0.004395073701356634</v>
+        <v>0.005920794855031036</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.3495240739955</v>
+        <v>36.71983700000001</v>
       </c>
       <c r="H13">
-        <v>34.3495240739955</v>
+        <v>110.159511</v>
       </c>
       <c r="I13">
-        <v>0.4362610367002279</v>
+        <v>0.4106319824241575</v>
       </c>
       <c r="J13">
-        <v>0.4362610367002279</v>
+        <v>0.4707598040127982</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>1029.133581608956</v>
+        <v>1100.248391618107</v>
       </c>
       <c r="R13">
-        <v>1029.133581608956</v>
+        <v>6601.490349708639</v>
       </c>
       <c r="S13">
-        <v>0.02655498494808373</v>
+        <v>0.02422547439802426</v>
       </c>
       <c r="T13">
-        <v>0.02655498494808373</v>
+        <v>0.01891213868696777</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.16426397278295</v>
+        <v>3.460826333333333</v>
       </c>
       <c r="H14">
-        <v>2.16426397278295</v>
+        <v>10.382479</v>
       </c>
       <c r="I14">
-        <v>0.02748754371167673</v>
+        <v>0.03870185965374504</v>
       </c>
       <c r="J14">
-        <v>0.02748754371167673</v>
+        <v>0.04436887686626525</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N14">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O14">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P14">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q14">
-        <v>3.959079229911803</v>
+        <v>6.987567565011333</v>
       </c>
       <c r="R14">
-        <v>3.959079229911803</v>
+        <v>41.925405390068</v>
       </c>
       <c r="S14">
-        <v>0.0001021570875125973</v>
+        <v>0.0001538535665584525</v>
       </c>
       <c r="T14">
-        <v>0.0001021570875125973</v>
+        <v>0.0001201091025270237</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.16426397278295</v>
+        <v>3.460826333333333</v>
       </c>
       <c r="H15">
-        <v>2.16426397278295</v>
+        <v>10.382479</v>
       </c>
       <c r="I15">
-        <v>0.02748754371167673</v>
+        <v>0.03870185965374504</v>
       </c>
       <c r="J15">
-        <v>0.02748754371167673</v>
+        <v>0.04436887686626525</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N15">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P15">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q15">
-        <v>284.6257547237812</v>
+        <v>483.4595001501721</v>
       </c>
       <c r="R15">
-        <v>284.6257547237812</v>
+        <v>4351.135501351549</v>
       </c>
       <c r="S15">
-        <v>0.00734426780701333</v>
+        <v>0.01064490149005809</v>
       </c>
       <c r="T15">
-        <v>0.00734426780701333</v>
+        <v>0.01246525764458346</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.16426397278295</v>
+        <v>3.460826333333333</v>
       </c>
       <c r="H16">
-        <v>2.16426397278295</v>
+        <v>10.382479</v>
       </c>
       <c r="I16">
-        <v>0.02748754371167673</v>
+        <v>0.03870185965374504</v>
       </c>
       <c r="J16">
-        <v>0.02748754371167673</v>
+        <v>0.04436887686626525</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N16">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O16">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P16">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q16">
-        <v>398.7149042800652</v>
+        <v>644.9417849140799</v>
       </c>
       <c r="R16">
-        <v>398.7149042800652</v>
+        <v>5804.476064226719</v>
       </c>
       <c r="S16">
-        <v>0.01028813797445091</v>
+        <v>0.01420044856932194</v>
       </c>
       <c r="T16">
-        <v>0.01028813797445091</v>
+        <v>0.01662882932740871</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.16426397278295</v>
+        <v>3.460826333333333</v>
       </c>
       <c r="H17">
-        <v>2.16426397278295</v>
+        <v>10.382479</v>
       </c>
       <c r="I17">
-        <v>0.02748754371167673</v>
+        <v>0.03870185965374504</v>
       </c>
       <c r="J17">
-        <v>0.02748754371167673</v>
+        <v>0.04436887686626525</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N17">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O17">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P17">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q17">
-        <v>302.4002457007365</v>
+        <v>496.9926554563825</v>
       </c>
       <c r="R17">
-        <v>302.4002457007365</v>
+        <v>4472.933899107442</v>
       </c>
       <c r="S17">
-        <v>0.007802907335241502</v>
+        <v>0.01094287702893884</v>
       </c>
       <c r="T17">
-        <v>0.007802907335241502</v>
+        <v>0.01281418918400646</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.16426397278295</v>
+        <v>3.460826333333333</v>
       </c>
       <c r="H18">
-        <v>2.16426397278295</v>
+        <v>10.382479</v>
       </c>
       <c r="I18">
-        <v>0.02748754371167673</v>
+        <v>0.03870185965374504</v>
       </c>
       <c r="J18">
-        <v>0.02748754371167673</v>
+        <v>0.04436887686626525</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N18">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O18">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P18">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q18">
-        <v>10.73201716011385</v>
+        <v>21.64302270677045</v>
       </c>
       <c r="R18">
-        <v>10.73201716011385</v>
+        <v>194.787204360934</v>
       </c>
       <c r="S18">
-        <v>0.000276920857741175</v>
+        <v>0.0004765401126445933</v>
       </c>
       <c r="T18">
-        <v>0.000276920857741175</v>
+        <v>0.0005580319637191179</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.16426397278295</v>
+        <v>3.460826333333333</v>
       </c>
       <c r="H19">
-        <v>2.16426397278295</v>
+        <v>10.382479</v>
       </c>
       <c r="I19">
-        <v>0.02748754371167673</v>
+        <v>0.03870185965374504</v>
       </c>
       <c r="J19">
-        <v>0.02748754371167673</v>
+        <v>0.04436887686626525</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N19">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O19">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P19">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q19">
-        <v>64.84272472187024</v>
+        <v>103.6978624638118</v>
       </c>
       <c r="R19">
-        <v>64.84272472187024</v>
+        <v>622.187174782871</v>
       </c>
       <c r="S19">
-        <v>0.001673152649717223</v>
+        <v>0.002283238886223128</v>
       </c>
       <c r="T19">
-        <v>0.001673152649717223</v>
+        <v>0.001782459644020483</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.22776632739534</v>
+        <v>6.503595333333333</v>
       </c>
       <c r="H20">
-        <v>5.22776632739534</v>
+        <v>19.510786</v>
       </c>
       <c r="I20">
-        <v>0.06639599293146041</v>
+        <v>0.07272865194393879</v>
       </c>
       <c r="J20">
-        <v>0.06639599293146041</v>
+        <v>0.08337812786310976</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N20">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O20">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P20">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q20">
-        <v>9.563131552298348</v>
+        <v>13.13105814338533</v>
       </c>
       <c r="R20">
-        <v>9.563131552298348</v>
+        <v>78.78634886031199</v>
       </c>
       <c r="S20">
-        <v>0.0002467598171568763</v>
+        <v>0.0002891220885165021</v>
       </c>
       <c r="T20">
-        <v>0.0002467598171568763</v>
+        <v>0.0002257093894489763</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.22776632739534</v>
+        <v>6.503595333333333</v>
       </c>
       <c r="H21">
-        <v>5.22776632739534</v>
+        <v>19.510786</v>
       </c>
       <c r="I21">
-        <v>0.06639599293146041</v>
+        <v>0.07272865194393879</v>
       </c>
       <c r="J21">
-        <v>0.06639599293146041</v>
+        <v>0.08337812786310976</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N21">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P21">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q21">
-        <v>687.5117615810782</v>
+        <v>908.5185577641887</v>
       </c>
       <c r="R21">
-        <v>687.5117615810782</v>
+        <v>8176.667019877699</v>
       </c>
       <c r="S21">
-        <v>0.01774003375914828</v>
+        <v>0.0200039311385657</v>
       </c>
       <c r="T21">
-        <v>0.01774003375914828</v>
+        <v>0.02342474994058085</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.22776632739534</v>
+        <v>6.503595333333333</v>
       </c>
       <c r="H22">
-        <v>5.22776632739534</v>
+        <v>19.510786</v>
       </c>
       <c r="I22">
-        <v>0.06639599293146041</v>
+        <v>0.07272865194393879</v>
       </c>
       <c r="J22">
-        <v>0.06639599293146041</v>
+        <v>0.08337812786310976</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N22">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O22">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P22">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q22">
-        <v>963.0934012849367</v>
+        <v>1211.97655665055</v>
       </c>
       <c r="R22">
-        <v>963.0934012849367</v>
+        <v>10907.78900985495</v>
       </c>
       <c r="S22">
-        <v>0.02485093405924642</v>
+        <v>0.02668552598469466</v>
       </c>
       <c r="T22">
-        <v>0.02485093405924642</v>
+        <v>0.03124894646428808</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.22776632739534</v>
+        <v>6.503595333333333</v>
       </c>
       <c r="H23">
-        <v>5.22776632739534</v>
+        <v>19.510786</v>
       </c>
       <c r="I23">
-        <v>0.06639599293146041</v>
+        <v>0.07272865194393879</v>
       </c>
       <c r="J23">
-        <v>0.06639599293146041</v>
+        <v>0.08337812786310976</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N23">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O23">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P23">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q23">
-        <v>730.4459353161036</v>
+        <v>933.9501042266697</v>
       </c>
       <c r="R23">
-        <v>730.4459353161036</v>
+        <v>8405.550938040029</v>
       </c>
       <c r="S23">
-        <v>0.01884787472135801</v>
+        <v>0.02056388767421938</v>
       </c>
       <c r="T23">
-        <v>0.01884787472135801</v>
+        <v>0.02408046314687125</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.22776632739534</v>
+        <v>6.503595333333333</v>
       </c>
       <c r="H24">
-        <v>5.22776632739534</v>
+        <v>19.510786</v>
       </c>
       <c r="I24">
-        <v>0.06639599293146041</v>
+        <v>0.07272865194393879</v>
       </c>
       <c r="J24">
-        <v>0.06639599293146041</v>
+        <v>0.08337812786310976</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N24">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O24">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P24">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q24">
-        <v>25.92312150468846</v>
+        <v>40.67163385786179</v>
       </c>
       <c r="R24">
-        <v>25.92312150468846</v>
+        <v>366.044704720756</v>
       </c>
       <c r="S24">
-        <v>0.0006689006302642616</v>
+        <v>0.0008955156237951029</v>
       </c>
       <c r="T24">
-        <v>0.0006689006302642616</v>
+        <v>0.00104865535728832</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.22776632739534</v>
+        <v>6.503595333333333</v>
       </c>
       <c r="H25">
-        <v>5.22776632739534</v>
+        <v>19.510786</v>
       </c>
       <c r="I25">
-        <v>0.06639599293146041</v>
+        <v>0.07272865194393879</v>
       </c>
       <c r="J25">
-        <v>0.06639599293146041</v>
+        <v>0.08337812786310976</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N25">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O25">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P25">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q25">
-        <v>156.62720312332</v>
+        <v>194.8693373893523</v>
       </c>
       <c r="R25">
-        <v>156.62720312332</v>
+        <v>1169.216024336114</v>
       </c>
       <c r="S25">
-        <v>0.004041489944286569</v>
+        <v>0.004290669434147453</v>
       </c>
       <c r="T25">
-        <v>0.004041489944286569</v>
+        <v>0.003349603564632283</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.04333956249106</v>
+        <v>8.473908333333334</v>
       </c>
       <c r="H26">
-        <v>5.04333956249106</v>
+        <v>25.421725</v>
       </c>
       <c r="I26">
-        <v>0.0640536544618185</v>
+        <v>0.09476234270313495</v>
       </c>
       <c r="J26">
-        <v>0.0640536544618185</v>
+        <v>0.1086381572506005</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N26">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O26">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P26">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q26">
-        <v>9.225760425876336</v>
+        <v>17.10921072478333</v>
       </c>
       <c r="R26">
-        <v>9.225760425876336</v>
+        <v>102.6552643487</v>
       </c>
       <c r="S26">
-        <v>0.0002380545476523595</v>
+        <v>0.0003767137943951707</v>
       </c>
       <c r="T26">
-        <v>0.0002380545476523595</v>
+        <v>0.0002940897423860719</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.04333956249106</v>
+        <v>8.473908333333334</v>
       </c>
       <c r="H27">
-        <v>5.04333956249106</v>
+        <v>25.421725</v>
       </c>
       <c r="I27">
-        <v>0.0640536544618185</v>
+        <v>0.09476234270313495</v>
       </c>
       <c r="J27">
-        <v>0.0640536544618185</v>
+        <v>0.1086381572506005</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N27">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P27">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q27">
-        <v>663.2575080277801</v>
+        <v>1183.761071075139</v>
       </c>
       <c r="R27">
-        <v>663.2575080277801</v>
+        <v>10653.84963967625</v>
       </c>
       <c r="S27">
-        <v>0.01711419533589141</v>
+        <v>0.02606427215815674</v>
       </c>
       <c r="T27">
-        <v>0.01711419533589141</v>
+        <v>0.03052145368122088</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.04333956249106</v>
+        <v>8.473908333333334</v>
       </c>
       <c r="H28">
-        <v>5.04333956249106</v>
+        <v>25.421725</v>
       </c>
       <c r="I28">
-        <v>0.0640536544618185</v>
+        <v>0.09476234270313495</v>
       </c>
       <c r="J28">
-        <v>0.0640536544618185</v>
+        <v>0.1086381572506005</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N28">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O28">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P28">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q28">
-        <v>929.1170930156005</v>
+        <v>1579.153947443081</v>
       </c>
       <c r="R28">
-        <v>929.1170930156005</v>
+        <v>14212.38552698773</v>
       </c>
       <c r="S28">
-        <v>0.02397423508565632</v>
+        <v>0.03477010629214333</v>
       </c>
       <c r="T28">
-        <v>0.02397423508565632</v>
+        <v>0.0407160492434725</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.04333956249106</v>
+        <v>8.473908333333334</v>
       </c>
       <c r="H29">
-        <v>5.04333956249106</v>
+        <v>25.421725</v>
       </c>
       <c r="I29">
-        <v>0.0640536544618185</v>
+        <v>0.09476234270313495</v>
       </c>
       <c r="J29">
-        <v>0.0640536544618185</v>
+        <v>0.1086381572506005</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N29">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O29">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P29">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q29">
-        <v>704.6770366409884</v>
+        <v>1216.897295340728</v>
       </c>
       <c r="R29">
-        <v>704.6770366409884</v>
+        <v>10952.07565806655</v>
       </c>
       <c r="S29">
-        <v>0.01818295354040058</v>
+        <v>0.02679387172740733</v>
       </c>
       <c r="T29">
-        <v>0.01818295354040058</v>
+        <v>0.0313758201229</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.04333956249106</v>
+        <v>8.473908333333334</v>
       </c>
       <c r="H30">
-        <v>5.04333956249106</v>
+        <v>25.421725</v>
       </c>
       <c r="I30">
-        <v>0.0640536544618185</v>
+        <v>0.09476234270313495</v>
       </c>
       <c r="J30">
-        <v>0.0640536544618185</v>
+        <v>0.1086381572506005</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N30">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O30">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P30">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q30">
-        <v>25.00859756924081</v>
+        <v>52.99341047742779</v>
       </c>
       <c r="R30">
-        <v>25.00859756924081</v>
+        <v>476.9406942968502</v>
       </c>
       <c r="S30">
-        <v>0.0006453029459845331</v>
+        <v>0.001166818800704521</v>
       </c>
       <c r="T30">
-        <v>0.0006453029459845331</v>
+        <v>0.001366353365403137</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.04333956249106</v>
+        <v>8.473908333333334</v>
       </c>
       <c r="H31">
-        <v>5.04333956249106</v>
+        <v>25.421725</v>
       </c>
       <c r="I31">
-        <v>0.0640536544618185</v>
+        <v>0.09476234270313495</v>
       </c>
       <c r="J31">
-        <v>0.0640536544618185</v>
+        <v>0.1086381572506005</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N31">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O31">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P31">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q31">
-        <v>151.1016599832861</v>
+        <v>253.9064651749208</v>
       </c>
       <c r="R31">
-        <v>151.1016599832861</v>
+        <v>1523.438791049525</v>
       </c>
       <c r="S31">
-        <v>0.003898913006233311</v>
+        <v>0.005590559930327879</v>
       </c>
       <c r="T31">
-        <v>0.003898913006233311</v>
+        <v>0.004364391095217877</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>28.7779208691425</v>
+        <v>29.0955195</v>
       </c>
       <c r="H32">
-        <v>28.7779208691425</v>
+        <v>58.191039</v>
       </c>
       <c r="I32">
-        <v>0.3654980943958355</v>
+        <v>0.3253704762345686</v>
       </c>
       <c r="J32">
-        <v>0.3654980943958355</v>
+        <v>0.248675778117253</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N32">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O32">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P32">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q32">
-        <v>52.6433328955542</v>
+        <v>58.745192264397</v>
       </c>
       <c r="R32">
-        <v>52.6433328955542</v>
+        <v>234.980769057588</v>
       </c>
       <c r="S32">
-        <v>0.001358368765377229</v>
+        <v>0.00129346260539877</v>
       </c>
       <c r="T32">
-        <v>0.001358368765377229</v>
+        <v>0.0006731796394103019</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>28.7779208691425</v>
+        <v>29.0955195</v>
       </c>
       <c r="H33">
-        <v>28.7779208691425</v>
+        <v>58.191039</v>
       </c>
       <c r="I33">
-        <v>0.3654980943958355</v>
+        <v>0.3253704762345686</v>
       </c>
       <c r="J33">
-        <v>0.3654980943958355</v>
+        <v>0.248675778117253</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N33">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P33">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q33">
-        <v>3784.6295783543</v>
+        <v>4064.493262373925</v>
       </c>
       <c r="R33">
-        <v>3784.6295783543</v>
+        <v>24386.95957424355</v>
       </c>
       <c r="S33">
-        <v>0.09765572058211058</v>
+        <v>0.08949277110396205</v>
       </c>
       <c r="T33">
-        <v>0.09765572058211058</v>
+        <v>0.06986446047625083</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>28.7779208691425</v>
+        <v>29.0955195</v>
       </c>
       <c r="H34">
-        <v>28.7779208691425</v>
+        <v>58.191039</v>
       </c>
       <c r="I34">
-        <v>0.3654980943958355</v>
+        <v>0.3253704762345686</v>
       </c>
       <c r="J34">
-        <v>0.3654980943958355</v>
+        <v>0.248675778117253</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N34">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O34">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P34">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q34">
-        <v>5301.657334324701</v>
+        <v>5422.091278778147</v>
       </c>
       <c r="R34">
-        <v>5301.657334324701</v>
+        <v>32532.54767266888</v>
       </c>
       <c r="S34">
-        <v>0.1367999579731769</v>
+        <v>0.1193846175631428</v>
       </c>
       <c r="T34">
-        <v>0.1367999579731769</v>
+        <v>0.09320017463224187</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>28.7779208691425</v>
+        <v>29.0955195</v>
       </c>
       <c r="H35">
-        <v>28.7779208691425</v>
+        <v>58.191039</v>
       </c>
       <c r="I35">
-        <v>0.3654980943958355</v>
+        <v>0.3253704762345686</v>
       </c>
       <c r="J35">
-        <v>0.3654980943958355</v>
+        <v>0.248675778117253</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N35">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O35">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P35">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q35">
-        <v>4020.974544244192</v>
+        <v>4178.267877504387</v>
       </c>
       <c r="R35">
-        <v>4020.974544244192</v>
+        <v>25069.60726502632</v>
       </c>
       <c r="S35">
-        <v>0.1037541874127715</v>
+        <v>0.09199788181076758</v>
       </c>
       <c r="T35">
-        <v>0.1037541874127715</v>
+        <v>0.07182012913870552</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>28.7779208691425</v>
+        <v>29.0955195</v>
       </c>
       <c r="H36">
-        <v>28.7779208691425</v>
+        <v>58.191039</v>
       </c>
       <c r="I36">
-        <v>0.3654980943958355</v>
+        <v>0.3253704762345686</v>
       </c>
       <c r="J36">
-        <v>0.3654980943958355</v>
+        <v>0.248675778117253</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N36">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O36">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P36">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q36">
-        <v>142.7021585555032</v>
+        <v>181.9550964284491</v>
       </c>
       <c r="R36">
-        <v>142.7021585555032</v>
+        <v>1091.730578570694</v>
       </c>
       <c r="S36">
-        <v>0.003682178621142634</v>
+        <v>0.004006321266813918</v>
       </c>
       <c r="T36">
-        <v>0.003682178621142634</v>
+        <v>0.003127621039640511</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>28.7779208691425</v>
+        <v>29.0955195</v>
       </c>
       <c r="H37">
-        <v>28.7779208691425</v>
+        <v>58.191039</v>
       </c>
       <c r="I37">
-        <v>0.3654980943958355</v>
+        <v>0.3253704762345686</v>
       </c>
       <c r="J37">
-        <v>0.3654980943958355</v>
+        <v>0.248675778117253</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N37">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O37">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P37">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q37">
-        <v>862.2048070162621</v>
+        <v>871.7984922745777</v>
       </c>
       <c r="R37">
-        <v>862.2048070162621</v>
+        <v>3487.193969098311</v>
       </c>
       <c r="S37">
-        <v>0.0222476810412568</v>
+        <v>0.01919542188448346</v>
       </c>
       <c r="T37">
-        <v>0.0222476810412568</v>
+        <v>0.009990213191004002</v>
       </c>
     </row>
   </sheetData>
